--- a/CoSES/02_Interface_Server/parametrization.xlsx
+++ b/CoSES/02_Interface_Server/parametrization.xlsx
@@ -4752,7 +4752,7 @@
   <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
+      <selection activeCell="V25" sqref="V25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/CoSES/02_Interface_Server/parametrization.xlsx
+++ b/CoSES/02_Interface_Server/parametrization.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="setup" sheetId="1" r:id="rId1"/>
@@ -3807,8 +3807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4231,7 +4231,7 @@
         <v>56</v>
       </c>
       <c r="D32">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="F32" t="s">
         <v>15</v>
@@ -4245,7 +4245,7 @@
         <v>46</v>
       </c>
       <c r="D33">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="F33" t="s">
         <v>15</v>
@@ -4294,7 +4294,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4689,7 +4689,7 @@
         <v>56</v>
       </c>
       <c r="D32">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="F32" t="s">
         <v>15</v>
@@ -4703,7 +4703,7 @@
         <v>46</v>
       </c>
       <c r="D33">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="F33" t="s">
         <v>15</v>
@@ -4751,8 +4751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V25" sqref="V25"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3:I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/CoSES/02_Interface_Server/parametrization.xlsx
+++ b/CoSES/02_Interface_Server/parametrization.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="setup" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="91">
   <si>
     <t>time step duration</t>
   </si>
@@ -85,9 +85,6 @@
   </si>
   <si>
     <t>array</t>
-  </si>
-  <si>
-    <t>EffReceive</t>
   </si>
   <si>
     <t>1/(100m)</t>
@@ -162,9 +159,6 @@
     <t>SecdSect</t>
   </si>
   <si>
-    <t>elec</t>
-  </si>
-  <si>
     <t>EffPrim</t>
   </si>
   <si>
@@ -210,18 +204,6 @@
     <t>StorLossPD</t>
   </si>
   <si>
-    <t>kWh/d</t>
-  </si>
-  <si>
-    <t>boiler</t>
-  </si>
-  <si>
-    <t>CRPOD01</t>
-  </si>
-  <si>
-    <t>gas boiler</t>
-  </si>
-  <si>
     <t>step / index</t>
   </si>
   <si>
@@ -254,6 +236,78 @@
   <si>
     <t>GrdSellCosts</t>
   </si>
+  <si>
+    <t>EffHtNetReceive</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>"elec"</t>
+  </si>
+  <si>
+    <t>"heat"</t>
+  </si>
+  <si>
+    <t>PrimEnCost</t>
+  </si>
+  <si>
+    <t>SOCminHOR</t>
+  </si>
+  <si>
+    <t>minimal SOC at end of horizon</t>
+  </si>
+  <si>
+    <t>not used</t>
+  </si>
+  <si>
+    <t>773.6 l, T_max = 90°C, T_ref = 20°C, cp= 4.184 kJ/(kg*K), rho=100kg/m³</t>
+  </si>
+  <si>
+    <t>cap = 62.94 kWh; losses = 24 kWh in 24 h beginning with 75% SOC</t>
+  </si>
+  <si>
+    <t>fraction of SOC per hour</t>
+  </si>
+  <si>
+    <t>SOC_init</t>
+  </si>
+  <si>
+    <t>only for simulations, otherwise read by platform</t>
+  </si>
+  <si>
+    <t>Connections</t>
+  </si>
+  <si>
+    <t>Wärmeverbindung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">length: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">losses </t>
+  </si>
+  <si>
+    <t>maxTransportCapacity</t>
+  </si>
+  <si>
+    <t>[m]</t>
+  </si>
+  <si>
+    <t>[%/100m]</t>
+  </si>
+  <si>
+    <t>or zero for no heat connection</t>
+  </si>
+  <si>
+    <t>Boiler</t>
+  </si>
+  <si>
+    <t>PROD01</t>
+  </si>
+  <si>
+    <t>Gaskessel</t>
+  </si>
 </sst>
 </file>
 
@@ -262,7 +316,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -277,6 +331,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -299,12 +366,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -423,7 +496,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1252,7 +1324,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1332,7 +1403,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1953,7 +2023,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2372,8 +2441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A28:F36"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2394,7 +2463,7 @@
         <v>2</v>
       </c>
       <c r="D29">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F29" t="s">
         <v>3</v>
@@ -2430,7 +2499,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
@@ -2452,16 +2520,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -2469,10 +2537,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2491,7 +2559,7 @@
         <v>0.3</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2511,7 +2579,7 @@
         <v>0.3</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -2531,7 +2599,7 @@
         <v>0.3</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -2551,7 +2619,7 @@
         <v>0.3</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -2571,7 +2639,7 @@
         <v>0.3</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -2591,7 +2659,7 @@
         <v>0.3</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -2611,7 +2679,7 @@
         <v>0.3</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -2631,7 +2699,7 @@
         <v>0.3</v>
       </c>
       <c r="E10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -2651,7 +2719,7 @@
         <v>0.3</v>
       </c>
       <c r="E11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -2671,7 +2739,7 @@
         <v>0.3</v>
       </c>
       <c r="E12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -2691,7 +2759,7 @@
         <v>0.3</v>
       </c>
       <c r="E13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -2711,7 +2779,7 @@
         <v>0.3</v>
       </c>
       <c r="E14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -2731,7 +2799,7 @@
         <v>0.3</v>
       </c>
       <c r="E15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -2751,7 +2819,7 @@
         <v>0.3</v>
       </c>
       <c r="E16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -2771,7 +2839,7 @@
         <v>0.3</v>
       </c>
       <c r="E17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -2791,7 +2859,7 @@
         <v>0.3</v>
       </c>
       <c r="E18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -2811,7 +2879,7 @@
         <v>0.3</v>
       </c>
       <c r="E19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -2831,7 +2899,7 @@
         <v>0.3</v>
       </c>
       <c r="E20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -2851,7 +2919,7 @@
         <v>0.3</v>
       </c>
       <c r="E21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -2871,7 +2939,7 @@
         <v>0.25</v>
       </c>
       <c r="E22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -2891,7 +2959,7 @@
         <v>0.25</v>
       </c>
       <c r="E23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -2911,7 +2979,7 @@
         <v>0.25</v>
       </c>
       <c r="E24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -2931,7 +2999,7 @@
         <v>0.25</v>
       </c>
       <c r="E25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -2951,7 +3019,7 @@
         <v>0.25</v>
       </c>
       <c r="E26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -2971,7 +3039,7 @@
         <v>0.25</v>
       </c>
       <c r="E27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -2991,7 +3059,7 @@
         <v>0.25</v>
       </c>
       <c r="E28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -3011,7 +3079,7 @@
         <v>0.25</v>
       </c>
       <c r="E29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -3031,7 +3099,7 @@
         <v>0.25</v>
       </c>
       <c r="E30" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -3051,7 +3119,7 @@
         <v>0.25</v>
       </c>
       <c r="E31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -3071,7 +3139,7 @@
         <v>0.25</v>
       </c>
       <c r="E32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -3091,7 +3159,7 @@
         <v>0.25</v>
       </c>
       <c r="E33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -3111,7 +3179,7 @@
         <v>0.25</v>
       </c>
       <c r="E34" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -3135,16 +3203,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -3152,10 +3220,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -3174,7 +3242,7 @@
         <v>0.1</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -3194,7 +3262,7 @@
         <v>0.1</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -3214,7 +3282,7 @@
         <v>0.1</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -3234,7 +3302,7 @@
         <v>0.1</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -3254,7 +3322,7 @@
         <v>0.1</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -3274,7 +3342,7 @@
         <v>0.1</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -3294,7 +3362,7 @@
         <v>0.1</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -3314,7 +3382,7 @@
         <v>0.1</v>
       </c>
       <c r="E10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -3334,7 +3402,7 @@
         <v>0.1</v>
       </c>
       <c r="E11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -3354,7 +3422,7 @@
         <v>0.1</v>
       </c>
       <c r="E12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -3374,7 +3442,7 @@
         <v>0.1</v>
       </c>
       <c r="E13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -3394,7 +3462,7 @@
         <v>0.1</v>
       </c>
       <c r="E14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -3414,7 +3482,7 @@
         <v>0.1</v>
       </c>
       <c r="E15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -3434,7 +3502,7 @@
         <v>0.1</v>
       </c>
       <c r="E16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -3454,7 +3522,7 @@
         <v>0.1</v>
       </c>
       <c r="E17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -3474,7 +3542,7 @@
         <v>0.1</v>
       </c>
       <c r="E18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -3494,7 +3562,7 @@
         <v>0.1</v>
       </c>
       <c r="E19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -3514,7 +3582,7 @@
         <v>0.1</v>
       </c>
       <c r="E20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -3534,7 +3602,7 @@
         <v>0.1</v>
       </c>
       <c r="E21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -3554,7 +3622,7 @@
         <v>0.03</v>
       </c>
       <c r="E22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -3574,7 +3642,7 @@
         <v>0.03</v>
       </c>
       <c r="E23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -3594,7 +3662,7 @@
         <v>0.03</v>
       </c>
       <c r="E24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -3614,7 +3682,7 @@
         <v>0.03</v>
       </c>
       <c r="E25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -3634,7 +3702,7 @@
         <v>0.03</v>
       </c>
       <c r="E26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -3654,7 +3722,7 @@
         <v>0.03</v>
       </c>
       <c r="E27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -3674,7 +3742,7 @@
         <v>0.03</v>
       </c>
       <c r="E28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -3694,7 +3762,7 @@
         <v>0.03</v>
       </c>
       <c r="E29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -3714,7 +3782,7 @@
         <v>0.03</v>
       </c>
       <c r="E30" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -3734,7 +3802,7 @@
         <v>0.03</v>
       </c>
       <c r="E31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -3754,7 +3822,7 @@
         <v>0.03</v>
       </c>
       <c r="E32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -3774,7 +3842,7 @@
         <v>0.03</v>
       </c>
       <c r="E33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -3794,7 +3862,7 @@
         <v>0.03</v>
       </c>
       <c r="E34" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -3805,10 +3873,640 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:L45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F20" t="s">
+        <v>38</v>
+      </c>
+      <c r="H20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F21" t="s">
+        <v>38</v>
+      </c>
+      <c r="H21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22">
+        <v>0.72299999999999998</v>
+      </c>
+      <c r="F22" t="s">
+        <v>38</v>
+      </c>
+      <c r="H22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="F23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="5">
+        <v>5</v>
+      </c>
+      <c r="F24" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="5">
+        <v>5</v>
+      </c>
+      <c r="F25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>25</v>
+      </c>
+      <c r="H27" t="s">
+        <v>16</v>
+      </c>
+      <c r="J27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" t="s">
+        <v>37</v>
+      </c>
+      <c r="F30" t="s">
+        <v>38</v>
+      </c>
+      <c r="H30" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31">
+        <v>62.94</v>
+      </c>
+      <c r="F31" t="s">
+        <v>52</v>
+      </c>
+      <c r="H31" t="s">
+        <v>18</v>
+      </c>
+      <c r="J31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32">
+        <v>0.97</v>
+      </c>
+      <c r="F32" t="s">
+        <v>38</v>
+      </c>
+      <c r="H32" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>53</v>
+      </c>
+      <c r="D33">
+        <v>0.97</v>
+      </c>
+      <c r="F33" t="s">
+        <v>38</v>
+      </c>
+      <c r="H33" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>54</v>
+      </c>
+      <c r="D34">
+        <v>5</v>
+      </c>
+      <c r="F34" t="s">
+        <v>15</v>
+      </c>
+      <c r="H34" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35">
+        <v>5</v>
+      </c>
+      <c r="F35" t="s">
+        <v>15</v>
+      </c>
+      <c r="H35" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>55</v>
+      </c>
+      <c r="D36">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="F36" t="s">
+        <v>77</v>
+      </c>
+      <c r="H36" t="s">
+        <v>18</v>
+      </c>
+      <c r="J36" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>46</v>
+      </c>
+      <c r="D37">
+        <v>-1.2E-4</v>
+      </c>
+      <c r="F37" t="s">
+        <v>25</v>
+      </c>
+      <c r="H37" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>72</v>
+      </c>
+      <c r="D38">
+        <v>0.75</v>
+      </c>
+      <c r="F38" t="s">
+        <v>38</v>
+      </c>
+      <c r="H38" t="s">
+        <v>18</v>
+      </c>
+      <c r="J38" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>71</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="F39" t="s">
+        <v>21</v>
+      </c>
+      <c r="H39" t="s">
+        <v>18</v>
+      </c>
+      <c r="J39" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>78</v>
+      </c>
+      <c r="D40">
+        <v>0.75</v>
+      </c>
+      <c r="F40" t="s">
+        <v>38</v>
+      </c>
+      <c r="H40" t="s">
+        <v>18</v>
+      </c>
+      <c r="J40" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>82</v>
+      </c>
+      <c r="D43">
+        <v>50</v>
+      </c>
+      <c r="F43" t="s">
+        <v>85</v>
+      </c>
+      <c r="H43" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D44">
+        <v>0.2</v>
+      </c>
+      <c r="F44" t="s">
+        <v>86</v>
+      </c>
+      <c r="H44" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>84</v>
+      </c>
+      <c r="D45">
+        <v>999</v>
+      </c>
+      <c r="F45" t="s">
+        <v>15</v>
+      </c>
+      <c r="H45" t="s">
+        <v>18</v>
+      </c>
+      <c r="J45" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3825,923 +4523,581 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
+      <c r="A2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="4" t="s">
+        <v>70</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H5" t="s">
         <v>16</v>
       </c>
       <c r="J5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="H6" t="s">
         <v>16</v>
       </c>
       <c r="J6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H7" t="s">
         <v>16</v>
       </c>
       <c r="J7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
+      <c r="A11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="H11" t="s">
-        <v>19</v>
-      </c>
-      <c r="J11" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D12" t="s">
         <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="H12" t="s">
         <v>16</v>
       </c>
-      <c r="J12" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>14</v>
+        <v>67</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H13" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="D14" t="s">
+        <v>14</v>
       </c>
       <c r="F14" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="H14" t="s">
         <v>16</v>
       </c>
       <c r="J14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
+        <v>23</v>
+      </c>
+      <c r="D15" t="s">
+        <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="H15" t="s">
         <v>16</v>
       </c>
       <c r="J15" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" t="s">
-        <v>38</v>
-      </c>
-      <c r="F18" t="s">
-        <v>39</v>
-      </c>
-      <c r="H18" t="s">
-        <v>40</v>
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" t="s">
-        <v>42</v>
-      </c>
-      <c r="F19" t="s">
-        <v>39</v>
-      </c>
-      <c r="H19" t="s">
-        <v>40</v>
+      <c r="A19" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20">
-        <v>0.72299999999999998</v>
+        <v>36</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>70</v>
       </c>
       <c r="F20" t="s">
+        <v>38</v>
+      </c>
+      <c r="H20" t="s">
         <v>39</v>
       </c>
-      <c r="H20" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21">
-        <v>0.27800000000000002</v>
-      </c>
-      <c r="F21" t="s">
-        <v>39</v>
-      </c>
-      <c r="H21" t="s">
-        <v>19</v>
-      </c>
+      <c r="D21" s="4"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D22">
-        <v>4.9000000000000004</v>
+        <v>0.88</v>
       </c>
       <c r="F22" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="H22" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="F23" t="s">
-        <v>15</v>
-      </c>
-      <c r="H23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>47</v>
-      </c>
-      <c r="D24" t="s">
-        <v>14</v>
+        <v>43</v>
+      </c>
+      <c r="D24" s="5">
+        <v>8</v>
       </c>
       <c r="F24" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="H24" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="5">
+        <v>20</v>
+      </c>
+      <c r="F25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>25</v>
+      </c>
+      <c r="H27" t="s">
+        <v>16</v>
+      </c>
+      <c r="J27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="F25" t="s">
-        <v>26</v>
-      </c>
-      <c r="H25" t="s">
-        <v>16</v>
-      </c>
-      <c r="J25" t="s">
+      <c r="B29" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>37</v>
-      </c>
-      <c r="D28" t="s">
-        <v>38</v>
-      </c>
-      <c r="F28" t="s">
-        <v>39</v>
-      </c>
-      <c r="H28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>53</v>
-      </c>
-      <c r="D29">
-        <v>36.1</v>
-      </c>
-      <c r="F29" t="s">
-        <v>54</v>
-      </c>
-      <c r="H29" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>43</v>
-      </c>
-      <c r="D30">
-        <v>0.97</v>
+        <v>36</v>
+      </c>
+      <c r="D30" t="s">
+        <v>37</v>
       </c>
       <c r="F30" t="s">
+        <v>38</v>
+      </c>
+      <c r="H30" t="s">
         <v>39</v>
-      </c>
-      <c r="H30" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D31">
-        <v>0.97</v>
+        <v>62.94</v>
       </c>
       <c r="F31" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="H31" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="J31" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="D32">
+        <v>0.97</v>
+      </c>
+      <c r="F32" t="s">
+        <v>38</v>
+      </c>
+      <c r="H32" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>53</v>
+      </c>
+      <c r="D33">
+        <v>0.97</v>
+      </c>
+      <c r="F33" t="s">
+        <v>38</v>
+      </c>
+      <c r="H33" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>54</v>
+      </c>
+      <c r="D34">
         <v>5</v>
       </c>
-      <c r="F32" t="s">
-        <v>15</v>
-      </c>
-      <c r="H32" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="F34" t="s">
+        <v>15</v>
+      </c>
+      <c r="H34" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35">
+        <v>5</v>
+      </c>
+      <c r="F35" t="s">
+        <v>15</v>
+      </c>
+      <c r="H35" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>55</v>
+      </c>
+      <c r="D36">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="F36" t="s">
+        <v>77</v>
+      </c>
+      <c r="H36" t="s">
+        <v>18</v>
+      </c>
+      <c r="J36" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>46</v>
       </c>
-      <c r="D33">
-        <v>5</v>
-      </c>
-      <c r="F33" t="s">
-        <v>15</v>
-      </c>
-      <c r="H33" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>57</v>
-      </c>
-      <c r="D34">
-        <v>24</v>
-      </c>
-      <c r="F34" t="s">
-        <v>58</v>
-      </c>
-      <c r="H34" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>48</v>
-      </c>
-      <c r="D35">
+      <c r="D37">
         <v>-1.2E-4</v>
       </c>
-      <c r="F35" t="s">
-        <v>26</v>
-      </c>
-      <c r="H35" t="s">
+      <c r="F37" t="s">
+        <v>25</v>
+      </c>
+      <c r="H37" t="s">
         <v>16</v>
       </c>
     </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>72</v>
+      </c>
+      <c r="D38">
+        <v>0.75</v>
+      </c>
+      <c r="F38" t="s">
+        <v>38</v>
+      </c>
+      <c r="H38" t="s">
+        <v>18</v>
+      </c>
+      <c r="J38" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>71</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="F39" t="s">
+        <v>21</v>
+      </c>
+      <c r="H39" t="s">
+        <v>18</v>
+      </c>
+      <c r="J39" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>78</v>
+      </c>
+      <c r="D40">
+        <v>0.5</v>
+      </c>
+      <c r="F40" t="s">
+        <v>38</v>
+      </c>
+      <c r="H40" t="s">
+        <v>18</v>
+      </c>
+      <c r="J40" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>82</v>
+      </c>
+      <c r="D43">
+        <v>50</v>
+      </c>
+      <c r="F43" t="s">
+        <v>85</v>
+      </c>
+      <c r="H43" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D44">
+        <v>0.2</v>
+      </c>
+      <c r="F44" t="s">
+        <v>86</v>
+      </c>
+      <c r="H44" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>84</v>
+      </c>
+      <c r="D45">
+        <v>999</v>
+      </c>
+      <c r="F45" t="s">
+        <v>15</v>
+      </c>
+      <c r="H45" t="s">
+        <v>18</v>
+      </c>
+      <c r="J45" t="s">
+        <v>87</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J35"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="F5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="F6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="F7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" t="s">
-        <v>19</v>
-      </c>
-      <c r="J11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" t="s">
-        <v>16</v>
-      </c>
-      <c r="J12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" t="s">
-        <v>22</v>
-      </c>
-      <c r="H13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="F14" t="s">
-        <v>26</v>
-      </c>
-      <c r="H14" t="s">
-        <v>16</v>
-      </c>
-      <c r="J14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="F15" t="s">
-        <v>26</v>
-      </c>
-      <c r="H15" t="s">
-        <v>16</v>
-      </c>
-      <c r="J15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" t="s">
-        <v>38</v>
-      </c>
-      <c r="F18" t="s">
-        <v>39</v>
-      </c>
-      <c r="H18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20">
-        <v>0.88</v>
-      </c>
-      <c r="F20" t="s">
-        <v>39</v>
-      </c>
-      <c r="H20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22">
-        <v>8</v>
-      </c>
-      <c r="F22" t="s">
-        <v>15</v>
-      </c>
-      <c r="H22" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23">
-        <v>20</v>
-      </c>
-      <c r="F23" t="s">
-        <v>15</v>
-      </c>
-      <c r="H23" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>47</v>
-      </c>
-      <c r="D24" t="s">
-        <v>14</v>
-      </c>
-      <c r="F24" t="s">
-        <v>22</v>
-      </c>
-      <c r="H24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="F25" t="s">
-        <v>26</v>
-      </c>
-      <c r="H25" t="s">
-        <v>16</v>
-      </c>
-      <c r="J25" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>37</v>
-      </c>
-      <c r="D28" t="s">
-        <v>38</v>
-      </c>
-      <c r="F28" t="s">
-        <v>39</v>
-      </c>
-      <c r="H28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>53</v>
-      </c>
-      <c r="D29">
-        <v>36.1</v>
-      </c>
-      <c r="F29" t="s">
-        <v>54</v>
-      </c>
-      <c r="H29" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>43</v>
-      </c>
-      <c r="D30">
-        <v>0.97</v>
-      </c>
-      <c r="F30" t="s">
-        <v>39</v>
-      </c>
-      <c r="H30" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>55</v>
-      </c>
-      <c r="D31">
-        <v>0.97</v>
-      </c>
-      <c r="F31" t="s">
-        <v>39</v>
-      </c>
-      <c r="H31" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>56</v>
-      </c>
-      <c r="D32">
-        <v>5</v>
-      </c>
-      <c r="F32" t="s">
-        <v>15</v>
-      </c>
-      <c r="H32" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>46</v>
-      </c>
-      <c r="D33">
-        <v>5</v>
-      </c>
-      <c r="F33" t="s">
-        <v>15</v>
-      </c>
-      <c r="H33" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>57</v>
-      </c>
-      <c r="D34">
-        <v>24</v>
-      </c>
-      <c r="F34" t="s">
-        <v>58</v>
-      </c>
-      <c r="H34" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>48</v>
-      </c>
-      <c r="D35">
-        <v>-1.2E-4</v>
-      </c>
-      <c r="F35" t="s">
-        <v>26</v>
-      </c>
-      <c r="H35" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -4752,7 +5108,7 @@
   <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:I34"/>
+      <selection activeCell="U25" sqref="U25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4767,13 +5123,13 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D1" t="str">
         <f>SF1_DEMND_heat!D1</f>
@@ -4809,10 +5165,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -6180,16 +6536,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -6197,10 +6553,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -6863,16 +7219,16 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -6880,10 +7236,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -7581,16 +7937,16 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" t="s">
         <v>62</v>
-      </c>
-      <c r="B1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -7598,10 +7954,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -7763,7 +8119,7 @@
         <v>15</v>
       </c>
       <c r="P10" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -8267,16 +8623,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" t="s">
         <v>64</v>
-      </c>
-      <c r="D1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -8284,10 +8640,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -8950,16 +9306,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -8967,10 +9323,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -8989,7 +9345,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -9009,7 +9365,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -9029,7 +9385,7 @@
         <v>0.09</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -9049,7 +9405,7 @@
         <v>0.09</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -9069,7 +9425,7 @@
         <v>0.09</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -9089,7 +9445,7 @@
         <v>0.09</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -9109,7 +9465,7 @@
         <v>0.09</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -9129,7 +9485,7 @@
         <v>0.09</v>
       </c>
       <c r="E10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -9149,7 +9505,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="E11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -9169,7 +9525,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="E12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -9189,7 +9545,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="E13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -9209,7 +9565,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="E14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -9229,7 +9585,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="E15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -9249,7 +9605,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="E16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -9269,7 +9625,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="E17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -9289,7 +9645,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="E18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -9309,7 +9665,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="E19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -9329,7 +9685,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="E20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -9349,7 +9705,7 @@
         <v>0.05</v>
       </c>
       <c r="E21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -9369,7 +9725,7 @@
         <v>0.05</v>
       </c>
       <c r="E22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -9389,7 +9745,7 @@
         <v>0.05</v>
       </c>
       <c r="E23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -9409,7 +9765,7 @@
         <v>0.05</v>
       </c>
       <c r="E24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -9429,7 +9785,7 @@
         <v>0.05</v>
       </c>
       <c r="E25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -9449,7 +9805,7 @@
         <v>0.09</v>
       </c>
       <c r="E26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -9469,7 +9825,7 @@
         <v>0.09</v>
       </c>
       <c r="E27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -9489,7 +9845,7 @@
         <v>0.09</v>
       </c>
       <c r="E28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -9509,7 +9865,7 @@
         <v>0.09</v>
       </c>
       <c r="E29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -9529,7 +9885,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="E30" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -9549,7 +9905,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="E31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -9569,7 +9925,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="E32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -9589,7 +9945,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="E33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -9609,7 +9965,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="E34" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/CoSES/02_Interface_Server/parametrization.xlsx
+++ b/CoSES/02_Interface_Server/parametrization.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="setup" sheetId="1" r:id="rId1"/>
@@ -2441,7 +2441,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A28:F36"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
@@ -3875,8 +3875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:L45"/>
+    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4396,7 +4396,7 @@
         <v>72</v>
       </c>
       <c r="D38">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="F38" t="s">
         <v>38</v>
@@ -4496,6 +4496,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -4505,8 +4506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4998,7 +4999,7 @@
         <v>72</v>
       </c>
       <c r="D38">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="F38" t="s">
         <v>38</v>
@@ -5098,6 +5099,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
